--- a/EmpleadosFirmasTijuana.xlsx
+++ b/EmpleadosFirmasTijuana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orlando\Desktop\firmasMasivas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5848B2-A83F-4BFC-8133-E743C7D22C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15C01F7-E371-4D0E-93A6-58AB88B3D6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>PUESTO DEL PERSONAL</t>
   </si>
   <si>
-    <t>ATENCION A CLIENTE DEPTO COMERCIAL</t>
-  </si>
-  <si>
     <t>GERENTE GENERAL</t>
   </si>
   <si>
@@ -274,6 +271,9 @@
   </si>
   <si>
     <t xml:space="preserve">Barron aa Agustin </t>
+  </si>
+  <si>
+    <t>ATN. DEPTO COMERCIAL</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -501,7 +501,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -868,7 +867,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,421 +880,421 @@
     <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>130</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="24">
+        <v>109</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
-        <v>130</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="25">
-        <v>109</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>55</v>
+      <c r="G2" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>135</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="24">
         <v>115</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="21"/>
+      <c r="F3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="20"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>133</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>56</v>
+      <c r="E4" s="24"/>
+      <c r="F4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>132</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>80</v>
+      <c r="B5" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>115</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>57</v>
+      <c r="F5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="23" t="s">
-        <v>71</v>
+      <c r="I5" s="22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>127</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>79</v>
+      <c r="B6" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>111</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="21"/>
+      <c r="F6" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="20"/>
       <c r="H6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>116</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>58</v>
+      <c r="E7" s="24"/>
+      <c r="F7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="23"/>
+        <v>66</v>
+      </c>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>136</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <v>106</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>59</v>
+      <c r="F8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="23"/>
+        <v>67</v>
+      </c>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>128</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="24">
         <v>112</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="I9" s="23"/>
+      <c r="F9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>121</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>114</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>78</v>
+      <c r="B11" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="24">
         <v>208</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>73</v>
+      <c r="F11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>115</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="24">
         <v>202</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="21"/>
+      <c r="F12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="20"/>
       <c r="H12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="23"/>
+        <v>67</v>
+      </c>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>117</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="24">
         <v>112</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="I13" s="23"/>
+      <c r="F13" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>131</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="24">
         <v>116</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>62</v>
+      <c r="F14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>118</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>77</v>
+      <c r="B15" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="24">
         <v>111</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>60</v>
+      <c r="F15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="23" t="s">
-        <v>74</v>
+      <c r="I15" s="22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>122</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="24">
         <v>111</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="21"/>
+      <c r="F16" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="20"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>134</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>63</v>
+      <c r="E17" s="24"/>
+      <c r="F17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -1303,58 +1302,58 @@
       <c r="A18" s="3">
         <v>142</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="B18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="24">
         <v>104</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>129</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>129</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F20" s="1"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="24"/>
+      <c r="I23" s="23"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G26" s="1"/>
